--- a/new original/_Lang_Chinese/Lang/CN/Data/chara_talk.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Data/chara_talk.xlsx
@@ -2269,7 +2269,7 @@
   </si>
   <si>
     <t xml:space="preserve">什么？
-是什么？
+什么东西？
 哦？
 咦？
 喂！
